--- a/4. Parameters adjustment/Sung figs 3 digitalized points.xlsx
+++ b/4. Parameters adjustment/Sung figs 3 digitalized points.xlsx
@@ -1,46 +1,63 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dafne\PycharmProjects\HCCModel2\4. Parameters adjustment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\dafne\PycharmProjects\HCCModel2\4. Parameters adjustment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E3EDD90-6948-41FC-9C59-62FF6E7C36F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F703423-BB45-4A9D-B364-A118D936EADA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5604" yWindow="2364" windowWidth="17280" windowHeight="9756" activeTab="1" xr2:uid="{7DA1CC97-A859-43E3-8317-10ED14607068}"/>
+    <workbookView xWindow="6804" yWindow="840" windowWidth="15936" windowHeight="9756" xr2:uid="{7DA1CC97-A859-43E3-8317-10ED14607068}"/>
   </bookViews>
   <sheets>
     <sheet name="fig 3b" sheetId="1" r:id="rId1"/>
     <sheet name="fig 3a" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
   <si>
     <t>Time</t>
   </si>
   <si>
     <t>Normalized number of L cells</t>
+  </si>
+  <si>
+    <t>PUNTOS FIGURA 3A</t>
+  </si>
+  <si>
+    <t>PUNTOS FIGURA 3B</t>
+  </si>
+  <si>
+    <r>
+      <t>? - No recuerdo a q paciente</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> tomé como ref. para sacar la curva</t>
+    </r>
+  </si>
+  <si>
+    <t>? - Me importan estos puntos (x ahora creo q no)</t>
   </si>
 </sst>
 </file>
@@ -50,7 +67,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -58,13 +75,42 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -79,7 +125,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -88,6 +134,8 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -402,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCFF197E-DB01-48C4-B128-3DC0CB46E9FB}">
-  <dimension ref="A1:B74"/>
+  <dimension ref="A1:E74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -414,7 +462,7 @@
     <col min="2" max="2" width="30.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -422,7 +470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>0.63764940000000003</v>
       </c>
@@ -430,7 +478,7 @@
         <v>1.0020404000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>5.7490269999999999</v>
       </c>
@@ -438,7 +486,7 @@
         <v>0.65553629999999996</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>6.9426303000000003</v>
       </c>
@@ -446,15 +494,19 @@
         <v>0.65630745999999995</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>6.8533819999999999</v>
       </c>
       <c r="B5" s="2">
         <v>0.68589440000000002</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="5"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>7.0604699999999996</v>
       </c>
@@ -462,7 +514,7 @@
         <v>0.95684219999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6.9310317000000001</v>
       </c>
@@ -470,7 +522,7 @@
         <v>0.52239020000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7.0275626000000004</v>
       </c>
@@ -478,7 +530,7 @@
         <v>0.57689080000000004</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8.1346150000000002</v>
       </c>
@@ -486,7 +538,7 @@
         <v>0.63839250000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>8.0565610000000003</v>
       </c>
@@ -494,7 +546,7 @@
         <v>0.79722519999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>8.9605049999999995</v>
       </c>
@@ -502,7 +554,7 @@
         <v>0.63371580000000005</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>8.9532889999999998</v>
       </c>
@@ -510,7 +562,7 @@
         <v>0.55040679999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>8.8602650000000001</v>
       </c>
@@ -518,7 +570,7 @@
         <v>0.5363928</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>9.9640129999999996</v>
       </c>
@@ -526,7 +578,7 @@
         <v>0.55974360000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>9.4252210000000005</v>
       </c>
@@ -534,7 +586,7 @@
         <v>0.69911444</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>9.9792539999999992</v>
       </c>
@@ -1014,10 +1066,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CB3F570-CD2E-454A-94C0-2B8FDD9B74E8}">
-  <dimension ref="A1:B259"/>
+  <dimension ref="A1:E259"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B85" sqref="B85"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1026,7 +1078,7 @@
     <col min="2" max="2" width="25.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1034,7 +1086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1.1487278999999999</v>
       </c>
@@ -1042,7 +1094,7 @@
         <v>1.0021945000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>7.925446</v>
       </c>
@@ -1050,7 +1102,7 @@
         <v>0.51939075999999995</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>8.4793140000000005</v>
       </c>
@@ -1058,31 +1110,41 @@
         <v>0.57579939999999996</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>7.4726067</v>
       </c>
       <c r="B5" s="3">
         <v>0.66151667000000003</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>7.8537264000000002</v>
       </c>
       <c r="B6" s="3">
         <v>0.95675370000000004</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>9.1325219999999998</v>
       </c>
       <c r="B7" s="3">
         <v>0.79411255999999997</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>10.783625000000001</v>
       </c>
@@ -1090,7 +1152,7 @@
         <v>0.73549960000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>9.8631899999999995</v>
       </c>
@@ -1098,7 +1160,7 @@
         <v>0.69960487000000005</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>10.135785</v>
       </c>
@@ -1106,7 +1168,7 @@
         <v>0.63367003</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>9.6721070000000005</v>
       </c>
@@ -1114,7 +1176,7 @@
         <v>0.54063106000000005</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>13.907780000000001</v>
       </c>
@@ -1122,7 +1184,7 @@
         <v>0.74208390000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>12.6069</v>
       </c>
@@ -1130,7 +1192,7 @@
         <v>0.42560413000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>15.204471</v>
       </c>
@@ -1138,7 +1200,7 @@
         <v>0.96772115999999997</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>15.375935999999999</v>
       </c>
@@ -1146,7 +1208,7 @@
         <v>0.70105390000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>15.283586</v>
       </c>
